--- a/data/edited_data/avg_number_children_per_woman_2021.xlsx
+++ b/data/edited_data/avg_number_children_per_woman_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3FA729EB-BC5B-47C6-93DC-18B4FA6EDE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF3A5AA-BE6A-4564-8FC5-A16B23C2D36A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3FA729EB-BC5B-47C6-93DC-18B4FA6EDE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7B4953A-3B0F-4375-9592-3F0E6CEDDF01}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2A934B92-5690-47F3-B481-6AD892E6F05B}"/>
   </bookViews>
@@ -203,10 +203,10 @@
     <t>country</t>
   </si>
   <si>
-    <t>avg_number_children_per_woman_2021</t>
-  </si>
-  <si>
     <t>EU average</t>
+  </si>
+  <si>
+    <t>fertility</t>
   </si>
 </sst>
 </file>
@@ -356,6 +356,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,7 +682,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +695,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1120,7 +1124,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="8">
         <v>1.5296921768301857</v>
